--- a/main project excel sheet.xlsx
+++ b/main project excel sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>DAILY ROUTINE</t>
   </si>
@@ -39,13 +39,31 @@
     <t>Abstract,gitup account is created,feasibility study was initiated,discussed with mam and venkat sir,proxy was checked</t>
   </si>
   <si>
-    <t>abstract for the main project "AUTOMATIC RESUME CORRECTION "was done.</t>
+    <t>Prepared for placement(quantitative,reasoning and verbal aptitude)</t>
+  </si>
+  <si>
+    <t>Feasiblity study of the project "AUTOMATIC RESUME CORRECTION" was completed</t>
   </si>
   <si>
     <t>Feasibility study for the main project "AUTOMATIC RESUME CORRECTION"was done.</t>
   </si>
   <si>
-    <t>Feasiblity study of the project "AUTOMATIC RESUME CORRECTION" was completed</t>
+    <t>abstract for the main project "AUTOMATIC RESUME CORRECTION"was done.</t>
+  </si>
+  <si>
+    <t>modules were added,prototype for the project was drawn</t>
+  </si>
+  <si>
+    <t>modules were designed.</t>
+  </si>
+  <si>
+    <t>web pages drawn related to the project.</t>
+  </si>
+  <si>
+    <t>register,login page were designed. The overall website and flow of it was drawn.</t>
+  </si>
+  <si>
+    <t>login and home page were designed.</t>
   </si>
 </sst>
 </file>
@@ -394,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,7 +459,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -449,10 +467,48 @@
         <v>43567</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43597</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43720</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43750</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43781</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/main project excel sheet.xlsx
+++ b/main project excel sheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>DAILY ROUTINE</t>
   </si>
@@ -64,13 +64,22 @@
   </si>
   <si>
     <t>login and home page were designed.</t>
+  </si>
+  <si>
+    <t>12/12/2019 Data flow,front screens for admin  ,faculty</t>
+  </si>
+  <si>
+    <t>dataflow diagram for the project was drawn</t>
+  </si>
+  <si>
+    <t>dataflow,front screens for modules were drwan.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,7 +209,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -235,7 +243,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -411,14 +418,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="109.7109375" customWidth="1"/>
@@ -426,7 +433,7 @@
     <col min="4" max="4" width="68.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -440,7 +447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18" customHeight="1">
       <c r="A2" s="1">
         <v>43508</v>
       </c>
@@ -451,7 +458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="19.5" customHeight="1">
       <c r="A3" s="1">
         <v>43536</v>
       </c>
@@ -462,7 +469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>43567</v>
       </c>
@@ -473,7 +480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>43597</v>
       </c>
@@ -481,7 +488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>43720</v>
       </c>
@@ -492,7 +499,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>43750</v>
       </c>
@@ -503,12 +510,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>43781</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -518,24 +536,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/main project excel sheet.xlsx
+++ b/main project excel sheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>DAILY ROUTINE</t>
   </si>
@@ -64,22 +64,13 @@
   </si>
   <si>
     <t>login and home page were designed.</t>
-  </si>
-  <si>
-    <t>12/12/2019 Data flow,front screens for admin  ,faculty</t>
-  </si>
-  <si>
-    <t>dataflow diagram for the project was drawn</t>
-  </si>
-  <si>
-    <t>dataflow,front screens for modules were drwan.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +200,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -243,6 +235,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -418,14 +411,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="109.7109375" customWidth="1"/>
@@ -433,7 +426,7 @@
     <col min="4" max="4" width="68.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -447,7 +440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1">
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43508</v>
       </c>
@@ -458,7 +451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19.5" customHeight="1">
+    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43536</v>
       </c>
@@ -469,7 +462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43567</v>
       </c>
@@ -480,7 +473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43597</v>
       </c>
@@ -488,7 +481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43720</v>
       </c>
@@ -499,7 +492,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43750</v>
       </c>
@@ -510,23 +503,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43781</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -536,24 +518,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
